--- a/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/1800-0.8-40-7.xlsx
+++ b/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/1800-0.8-40-7.xlsx
@@ -40,13 +40,13 @@
     <t>requestCost</t>
   </si>
   <si>
-    <t>C,D</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
     <t>A,C</t>
+  </si>
+  <si>
+    <t>C,D</t>
   </si>
   <si>
     <t>A,B</t>
@@ -444,19 +444,19 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>222</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -467,22 +467,22 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>1915</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -493,51 +493,51 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="F4">
-        <v>372</v>
+        <v>243</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="F5">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -545,132 +545,132 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B6">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="F6">
-        <v>417</v>
+        <v>275</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>16</v>
       </c>
       <c r="E7">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F7">
-        <v>410</v>
+        <v>1877</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>235</v>
+        <v>368</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>235</v>
+        <v>368</v>
       </c>
       <c r="F8">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B9">
-        <v>324</v>
+        <v>404</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E9">
-        <v>324</v>
+        <v>404</v>
       </c>
       <c r="F9">
-        <v>615</v>
+        <v>547</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>431</v>
+      </c>
+      <c r="C10">
         <v>32</v>
       </c>
-      <c r="B10">
-        <v>403</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
       <c r="D10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="F10">
-        <v>1909</v>
+        <v>550</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,51 +678,51 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>424</v>
+        <v>565</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>424</v>
+        <v>565</v>
       </c>
       <c r="F11">
-        <v>713</v>
+        <v>650</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B12">
-        <v>438</v>
+        <v>700</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>438</v>
+        <v>700</v>
       </c>
       <c r="F12">
-        <v>681</v>
+        <v>1775</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,48 +730,48 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>473</v>
+        <v>707</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>473</v>
+        <v>707</v>
       </c>
       <c r="F13">
-        <v>703</v>
+        <v>802</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>661</v>
+        <v>717</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E14">
-        <v>661</v>
+        <v>717</v>
       </c>
       <c r="F14">
-        <v>827</v>
+        <v>867</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -779,22 +779,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>668</v>
+        <v>766</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E15">
-        <v>668</v>
+        <v>766</v>
       </c>
       <c r="F15">
-        <v>838</v>
+        <v>869</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -805,77 +805,77 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>759</v>
+        <v>820</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>759</v>
+        <v>820</v>
       </c>
       <c r="F16">
-        <v>2463</v>
+        <v>947</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>797</v>
+        <v>826</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E17">
-        <v>797</v>
+        <v>826</v>
       </c>
       <c r="F17">
-        <v>987</v>
+        <v>960</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B18">
-        <v>814</v>
+        <v>934</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E18">
-        <v>814</v>
+        <v>934</v>
       </c>
       <c r="F18">
-        <v>2565</v>
+        <v>1918</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -883,103 +883,103 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>846</v>
+        <v>1061</v>
       </c>
       <c r="C19">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>846</v>
+        <v>1061</v>
       </c>
       <c r="F19">
-        <v>1047</v>
+        <v>1191</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>949</v>
+        <v>1063</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>949</v>
+        <v>1063</v>
       </c>
       <c r="F20">
-        <v>1256</v>
+        <v>1143</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>1012</v>
+        <v>1089</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>1012</v>
+        <v>1089</v>
       </c>
       <c r="F21">
-        <v>2103</v>
+        <v>1234</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B22">
-        <v>1039</v>
+        <v>1107</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D22">
         <v>29</v>
       </c>
       <c r="E22">
-        <v>1039</v>
+        <v>1107</v>
       </c>
       <c r="F22">
-        <v>1308</v>
+        <v>1228</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -987,311 +987,311 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B23">
-        <v>1059</v>
+        <v>1117</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D23">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>1059</v>
+        <v>1117</v>
       </c>
       <c r="F23">
-        <v>2672</v>
+        <v>1212</v>
       </c>
       <c r="G23" t="s">
         <v>8</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>1075</v>
+        <v>1122</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>1075</v>
+        <v>1122</v>
       </c>
       <c r="F24">
-        <v>1380</v>
+        <v>1227</v>
       </c>
       <c r="G24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B25">
-        <v>1078</v>
+        <v>1144</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E25">
-        <v>1078</v>
+        <v>1144</v>
       </c>
       <c r="F25">
-        <v>1347</v>
+        <v>1235</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>1085</v>
+        <v>1147</v>
       </c>
       <c r="C26">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E26">
-        <v>1085</v>
+        <v>1147</v>
       </c>
       <c r="F26">
-        <v>1344</v>
+        <v>1267</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>1125</v>
+        <v>1178</v>
       </c>
       <c r="C27">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E27">
-        <v>1125</v>
+        <v>1178</v>
       </c>
       <c r="F27">
-        <v>2933</v>
+        <v>1283</v>
       </c>
       <c r="G27" t="s">
         <v>9</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B28">
-        <v>1136</v>
+        <v>1183</v>
       </c>
       <c r="C28">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E28">
-        <v>1136</v>
+        <v>1183</v>
       </c>
       <c r="F28">
-        <v>1338</v>
+        <v>1303</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>1245</v>
+        <v>1295</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E29">
-        <v>1245</v>
+        <v>1295</v>
       </c>
       <c r="F29">
-        <v>2901</v>
+        <v>1394</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B30">
-        <v>1263</v>
+        <v>1369</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>1263</v>
+        <v>1369</v>
       </c>
       <c r="F30">
-        <v>1435</v>
+        <v>1455</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>1279</v>
+        <v>1404</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E31">
-        <v>1279</v>
+        <v>1404</v>
       </c>
       <c r="F31">
-        <v>1557</v>
+        <v>1507</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B32">
-        <v>1469</v>
+        <v>1415</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D32">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E32">
-        <v>1469</v>
+        <v>1415</v>
       </c>
       <c r="F32">
-        <v>1675</v>
+        <v>1555</v>
       </c>
       <c r="G32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>1482</v>
+        <v>1426</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E33">
-        <v>1482</v>
+        <v>1426</v>
       </c>
       <c r="F33">
-        <v>1642</v>
+        <v>1565</v>
       </c>
       <c r="G33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B34">
-        <v>1539</v>
+        <v>1441</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>1539</v>
+        <v>1441</v>
       </c>
       <c r="F34">
-        <v>1722</v>
+        <v>1566</v>
       </c>
       <c r="G34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -1299,77 +1299,77 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>1547</v>
+        <v>1457</v>
       </c>
       <c r="C35">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>1547</v>
+        <v>1457</v>
       </c>
       <c r="F35">
-        <v>1795</v>
+        <v>3205</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>1599</v>
+        <v>1496</v>
       </c>
       <c r="C36">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E36">
-        <v>1599</v>
+        <v>1496</v>
       </c>
       <c r="F36">
-        <v>1889</v>
+        <v>1597</v>
       </c>
       <c r="G36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B37">
-        <v>1632</v>
+        <v>1503</v>
       </c>
       <c r="C37">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E37">
-        <v>1632</v>
+        <v>1503</v>
       </c>
       <c r="F37">
-        <v>1835</v>
+        <v>1604</v>
       </c>
       <c r="G37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -1377,25 +1377,25 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B38">
-        <v>1659</v>
+        <v>1504</v>
       </c>
       <c r="C38">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E38">
-        <v>1659</v>
+        <v>1504</v>
       </c>
       <c r="F38">
-        <v>1907</v>
+        <v>3310</v>
       </c>
       <c r="G38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -1403,74 +1403,74 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B39">
-        <v>1712</v>
+        <v>1539</v>
       </c>
       <c r="C39">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>1712</v>
+        <v>1539</v>
       </c>
       <c r="F39">
-        <v>1905</v>
+        <v>1656</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B40">
-        <v>1746</v>
+        <v>1600</v>
       </c>
       <c r="C40">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E40">
-        <v>1746</v>
+        <v>1600</v>
       </c>
       <c r="F40">
-        <v>1988</v>
+        <v>1720</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B41">
-        <v>1759</v>
+        <v>1662</v>
       </c>
       <c r="C41">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E41">
-        <v>1759</v>
+        <v>1662</v>
       </c>
       <c r="F41">
-        <v>2061</v>
+        <v>1774</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
